--- a/ddl_compare_result.xlsx
+++ b/ddl_compare_result.xlsx
@@ -31,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -57,11 +63,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +511,318 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>nullable_db2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EMP_COMMON</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EMP_COMMON</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SALARY</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEPT_COMMON</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DEPT_NAME</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEPT_COMMON</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LOCATION</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIFF_TABLE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>COL1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIFF_TABLE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>COL2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -518,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +884,102 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>nullable</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ONLY_IN_DB1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ONLY_IN_DB1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DIFF_TABLE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>COL3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -579,7 +994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +1044,102 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ONLY_IN_DB2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ONLY_IN_DB2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEST_SCHEMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DIFF_TABLE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>COL4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
